--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1570383.494208699</v>
+        <v>1678534.587122994</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10400964.22282857</v>
+        <v>10407007.23341583</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>206.0547905495183</v>
+        <v>232.0161212872575</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +822,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>115.8232381502063</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>50.10599522428883</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>48.22395291954793</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -956,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>71.39346770308043</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>30.13702053918252</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>23.94563726208596</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>61.48578153808629</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>235.2400949117941</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>133.6678680078464</v>
+        <v>163.8785661952482</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.4267013134143</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>63.8415564125923</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="W16" t="n">
-        <v>245.879692121443</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>137.9640996397613</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>206.7582264966179</v>
+        <v>176.76214411214</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2950,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3193,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>240.7377005646511</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V37" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>105.1820732698679</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>140.307475200959</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>161.1739971048551</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1842.294639468328</v>
+        <v>1078.689549231436</v>
       </c>
       <c r="C2" t="n">
-        <v>1842.294639468328</v>
+        <v>1078.689549231436</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4328,25 +4330,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4370,10 +4372,10 @@
         <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>2228.89447953245</v>
+        <v>1855.42872127137</v>
       </c>
       <c r="Y2" t="n">
-        <v>2228.89447953245</v>
+        <v>1465.289389295558</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4400,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>846.3061319081667</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.0729169938204</v>
+        <v>624.0678491612455</v>
       </c>
       <c r="C4" t="n">
-        <v>198.1367340659135</v>
+        <v>455.1316662333386</v>
       </c>
       <c r="D4" t="n">
-        <v>198.1367340659135</v>
+        <v>305.0150268210029</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4510,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1322.824202385665</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253778</v>
+        <v>1033.705864889503</v>
       </c>
       <c r="V4" t="n">
-        <v>997.5035118656076</v>
+        <v>1033.705864889503</v>
       </c>
       <c r="W4" t="n">
-        <v>997.5035118656076</v>
+        <v>1033.705864889503</v>
       </c>
       <c r="X4" t="n">
-        <v>769.5139609675903</v>
+        <v>805.7163139914852</v>
       </c>
       <c r="Y4" t="n">
-        <v>548.7213818240601</v>
+        <v>805.7163139914852</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1378.810406950777</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="C5" t="n">
-        <v>1330.099343395678</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270159</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926588</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>1768.949738926588</v>
+        <v>1572.135917611563</v>
       </c>
       <c r="X5" t="n">
-        <v>1768.949738926588</v>
+        <v>1572.135917611563</v>
       </c>
       <c r="Y5" t="n">
-        <v>1378.810406950777</v>
+        <v>1181.996585635751</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>249.6746861477877</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C7" t="n">
-        <v>249.6746861477877</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D7" t="n">
-        <v>249.6746861477877</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6746861477877</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F7" t="n">
-        <v>249.6746861477877</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
-        <v>81.68822145606626</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>81.68822145606626</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288652</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>767.0814070827656</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>477.664237045805</v>
+        <v>1612.258607688552</v>
       </c>
       <c r="X7" t="n">
-        <v>249.6746861477877</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y7" t="n">
-        <v>249.6746861477877</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1992.201838557432</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C8" t="n">
-        <v>1623.239321617021</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D8" t="n">
-        <v>1264.97362301027</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>879.185370412026</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>468.1994656224185</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>1991.278222045789</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>1991.278222045789</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794324</v>
+        <v>1638.509566775675</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.341170533244</v>
+        <v>1638.509566775675</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.201838557432</v>
+        <v>1248.370234799863</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.5608581015648</v>
+        <v>771.8570290615538</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>771.8570290615538</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1510.760158180073</v>
+        <v>1470.912214826772</v>
       </c>
       <c r="W10" t="n">
-        <v>1221.342988143112</v>
+        <v>1181.495044789811</v>
       </c>
       <c r="X10" t="n">
-        <v>993.3534372450949</v>
+        <v>953.5054938917935</v>
       </c>
       <c r="Y10" t="n">
-        <v>772.5608581015648</v>
+        <v>953.5054938917935</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5023,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,28 +5062,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913853</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951538</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>300.0149148245539</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.284195611858</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,19 +5460,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
         <v>1729.097755135313</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5519,46 +5521,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612594</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
         <v>2092.798483612594</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263526</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5747,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5786,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5826,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>1540.888753373307</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5932,16 +5934,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V22" t="n">
         <v>2018.514925172274</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6260,10 +6262,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6300,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M27" t="n">
-        <v>738.7889117913853</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N27" t="n">
-        <v>1366.386875345992</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6151975578602</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6458,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
         <v>378.192580311172</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>2878.328163333972</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>3475.706650960524</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>4103.30461451513</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6691,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6786,19 +6788,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>559.7594328861248</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>390.823249958218</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>240.7066105458822</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1734.29168600076</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1479.607197794873</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1190.190027757912</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>962.2004768598947</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>741.4078977163646</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084666</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>2715.159942084666</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>3312.538429711218</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N36" t="n">
-        <v>3940.136393265825</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7117,16 +7119,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
         <v>2018.514925172274</v>
@@ -7154,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7169,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>282.1478848544703</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>2828.967015012343</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>3456.56497856695</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>4008.474708806237</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>4432.097858301305</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2217.115362555031</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1997.513897577973</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1708.43867092217</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1708.43867092217</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1419.02150088521</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>129.7511347056858</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54.95314511566545</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154991</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.40527886852298</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>101.6825818796765</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,10 +23712,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="W16" t="n">
-        <v>40.64330621514796</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>80.62055371233345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>45.37941682721009</v>
+        <v>75.37549921168795</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>45.44677382459304</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -25366,10 +25368,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V37" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>35.11263957635599</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>26.93934589766886</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>19.8522888967895</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>909855.3304658474</v>
+        <v>916391.4507170253</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894570.6432741423</v>
+        <v>894570.6432741424</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>894570.6432741423</v>
+        <v>894570.6432741424</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="K2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="M2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="N2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985042</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>86694.40323307095</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26473,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-807126.2691507244</v>
+        <v>-807126.2691507243</v>
       </c>
       <c r="C6" t="n">
-        <v>307625.5144251951</v>
+        <v>307625.5144251952</v>
       </c>
       <c r="D6" t="n">
-        <v>146421.6661769821</v>
+        <v>307625.5144251953</v>
       </c>
       <c r="E6" t="n">
-        <v>90602.92970552199</v>
+        <v>-91470.05011166865</v>
       </c>
       <c r="F6" t="n">
         <v>416015.3915128771</v>
       </c>
       <c r="G6" t="n">
-        <v>416015.3915128771</v>
+        <v>416015.3915128772</v>
       </c>
       <c r="H6" t="n">
-        <v>416015.3915128771</v>
+        <v>416015.3915128772</v>
       </c>
       <c r="I6" t="n">
         <v>416015.3915128772</v>
       </c>
       <c r="J6" t="n">
-        <v>248410.2137028946</v>
+        <v>248410.2137028945</v>
       </c>
       <c r="K6" t="n">
+        <v>416015.3915128771</v>
+      </c>
+      <c r="L6" t="n">
+        <v>416015.3915128773</v>
+      </c>
+      <c r="M6" t="n">
+        <v>283408.0977839504</v>
+      </c>
+      <c r="N6" t="n">
         <v>416015.3915128772</v>
-      </c>
-      <c r="L6" t="n">
-        <v>367721.4215046865</v>
-      </c>
-      <c r="M6" t="n">
-        <v>330960.3635773654</v>
-      </c>
-      <c r="N6" t="n">
-        <v>416015.3915128771</v>
       </c>
       <c r="O6" t="n">
         <v>416015.3915128772</v>
       </c>
       <c r="P6" t="n">
-        <v>416015.3915128772</v>
+        <v>416015.3915128774</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26795,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>148.6282510711646</v>
+        <v>122.6669203334254</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27555,7 +27557,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>104.9254578470056</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>202.0316480995392</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>317.0489388514596</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>277.8475010143326</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>74.65957466471806</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>262.5773610745051</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27855,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>349.4359441153671</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>15.80515521666788</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>118.4697753159816</v>
+        <v>88.25907712857983</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>742.935485982477</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32078,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>318.3985571819322</v>
       </c>
       <c r="N18" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32546,22 +32548,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>615.038144437878</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,7 +32572,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,7 +32794,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,16 +33031,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>677.7372574190229</v>
+        <v>572.868299221487</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33178,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,7 +33268,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,7 +33508,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>436.4492970000073</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33749,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>237.355789154362</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>337.5641188593844</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33995,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,13 +34210,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>364.3208035245831</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,25 +34450,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34775,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>427.431495343536</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,10 +34795,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>304.6326742391977</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35027,13 +35029,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>546.4575832202787</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>611.5937738991437</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35726,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,19 +35965,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>176.2645232599139</v>
       </c>
       <c r="N18" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36127,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>472.9041105158597</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,7 +36220,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36364,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q24" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>535.1410129745784</v>
+        <v>430.2720547770426</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36826,10 +36828,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>302.474889585677</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,10 +37326,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>94.75954470991759</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>199.0097390795102</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>224.3390294385616</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1678534.587122994</v>
+        <v>1674397.429872842</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>232.0161212872575</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>398.1101809314188</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="T4" t="n">
-        <v>115.8232381502063</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>302.7659493534381</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>71.39346770308043</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>50.9807481254279</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>23.94563726208596</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>53.43995086960384</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>235.2400949117941</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>120.3332554667401</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>163.8785661952482</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>20.92847288552853</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>63.8415564125923</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V16" t="n">
-        <v>25.7319404949734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.017717176682</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>21.63824106824955</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>176.76214411214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>41.33703994142957</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>105.1820732698679</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>140.307475200959</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>115.7228684476128</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1078.689549231436</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="C2" t="n">
-        <v>1078.689549231436</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872908</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.89447953245</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1855.42872127137</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1465.289389295558</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L3" t="n">
-        <v>846.3061319081667</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.0678491612455</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>455.1316662333386</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>305.0150268210029</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="T4" t="n">
-        <v>1322.824202385665</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="U4" t="n">
-        <v>1033.705864889503</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="V4" t="n">
-        <v>1033.705864889503</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="W4" t="n">
-        <v>1033.705864889503</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="X4" t="n">
-        <v>805.7163139914852</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>805.7163139914852</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1181.996585635751</v>
+        <v>1466.396332783113</v>
       </c>
       <c r="C5" t="n">
-        <v>1181.996585635751</v>
+        <v>1097.433815842701</v>
       </c>
       <c r="D5" t="n">
-        <v>1181.996585635751</v>
+        <v>739.1681172359506</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>739.1681172359506</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1572.135917611563</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="X5" t="n">
-        <v>1572.135917611563</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="Y5" t="n">
-        <v>1181.996585635751</v>
+        <v>1852.996172847234</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167645</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888576</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765219</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4764,13 +4764,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1612.258607688552</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>1384.269056790534</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.476477647004</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1248.370234799863</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>520.9312851968494</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>105.2265349211383</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4807,10 +4807,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4837,19 +4837,19 @@
         <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>1991.278222045789</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>1991.278222045789</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1638.509566775675</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.509566775675</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y8" t="n">
-        <v>1248.370234799863</v>
+        <v>527.8767859460529</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4886,7 +4886,7 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
         <v>909.2465818694943</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>771.8570290615538</v>
+        <v>172.7955294637002</v>
       </c>
       <c r="C10" t="n">
-        <v>771.8570290615538</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>621.7403896492181</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4977,10 +4977,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1470.912214826772</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>1181.495044789811</v>
+        <v>803.2261243354874</v>
       </c>
       <c r="X10" t="n">
-        <v>953.5054938917935</v>
+        <v>575.23657343747</v>
       </c>
       <c r="Y10" t="n">
-        <v>953.5054938917935</v>
+        <v>354.4439942939399</v>
       </c>
     </row>
     <row r="11">
@@ -5023,37 +5023,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,7 +5068,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>594.8179559048574</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>446.9048623224643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>300.0149148245539</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038306</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797706</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,34 +5770,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>115.6734722078199</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>115.6734722078199</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2197.062545487567</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192507</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2383.002557118213</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>2878.328163333972</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>3475.706650960524</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>4103.30461451513</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6782,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
@@ -7259,22 +7259,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622261</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343192</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2570777219835</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3439841395904</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>449.3439841395904</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>282.1478848544703</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>2231.588527385791</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>2828.967015012343</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3456.56497856695</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4008.474708806237</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4432.097858301305</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.5477693179085</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L3" t="n">
-        <v>129.7511347056858</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>211.0329012241558</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>101.6825818796765</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V16" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194582</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462284</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>59.62759525031599</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>75.37549921168795</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>107.2784330767828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>35.11263957635599</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>26.93934589766886</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>32.89260457059954</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894570.6432741423</v>
+        <v>894570.6432741422</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117843</v>
@@ -26322,16 +26322,16 @@
         <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985036</v>
       </c>
       <c r="F2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="G2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="G2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="H2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
@@ -26343,19 +26343,19 @@
         <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985042</v>
+        <v>524645.2897985037</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467444</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-807126.2691507243</v>
+        <v>-807126.2691507249</v>
       </c>
       <c r="C6" t="n">
-        <v>307625.5144251952</v>
+        <v>307625.5144251955</v>
       </c>
       <c r="D6" t="n">
         <v>307625.5144251953</v>
       </c>
       <c r="E6" t="n">
-        <v>-91470.05011166865</v>
+        <v>-91817.42936602568</v>
       </c>
       <c r="F6" t="n">
-        <v>416015.3915128771</v>
+        <v>415668.01225852</v>
       </c>
       <c r="G6" t="n">
-        <v>416015.3915128772</v>
+        <v>415668.0122585201</v>
       </c>
       <c r="H6" t="n">
-        <v>416015.3915128772</v>
+        <v>415668.0122585201</v>
       </c>
       <c r="I6" t="n">
-        <v>416015.3915128772</v>
+        <v>415668.0122585202</v>
       </c>
       <c r="J6" t="n">
-        <v>248410.2137028945</v>
+        <v>248062.8344485375</v>
       </c>
       <c r="K6" t="n">
-        <v>416015.3915128771</v>
+        <v>415668.0122585201</v>
       </c>
       <c r="L6" t="n">
-        <v>416015.3915128773</v>
+        <v>415668.0122585202</v>
       </c>
       <c r="M6" t="n">
-        <v>283408.0977839504</v>
+        <v>283060.7185295935</v>
       </c>
       <c r="N6" t="n">
-        <v>416015.3915128772</v>
+        <v>415668.0122585202</v>
       </c>
       <c r="O6" t="n">
-        <v>416015.3915128772</v>
+        <v>415668.01225852</v>
       </c>
       <c r="P6" t="n">
-        <v>416015.3915128774</v>
+        <v>415668.01225852</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>122.6669203334254</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.765864810292612</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>49.80376291451429</v>
       </c>
       <c r="T4" t="n">
-        <v>104.9254578470056</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>104.1100963882733</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>277.8475010143326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>262.5773610745051</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>247.5786016928015</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>15.80515521666788</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>46.91356563188771</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>88.25907712857983</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28976,7 +28976,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32317,28 +32317,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>318.3985571819322</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>362.5355639238086</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>572.868299221487</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>699.0496615458086</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33502,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33739,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>364.3208035245831</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L3" t="n">
-        <v>427.431495343536</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35029,13 +35029,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>546.4575832202787</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>176.2645232599139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096312</v>
       </c>
       <c r="L19" t="n">
         <v>394.3420143191314</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>430.2720547770426</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>556.4534171013642</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>163.7852262023929</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>224.3390294385616</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1674397.429872842</v>
+        <v>1676157.960175627</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>398.1101809314188</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>195.6742208912088</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>144.8586974472232</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>171.1971464172155</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>93.10581760889765</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>302.7659493534381</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.9807481254279</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>50.9807481254283</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>170.7654710250997</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>53.43995086960384</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>120.3332554667401</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>32.57570591153974</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>20.92847288552853</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>15.51491006411167</v>
       </c>
       <c r="C19" t="n">
-        <v>110.017717176682</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>51.89407438975498</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>21.63824106824955</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>20.92847288552893</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>164.5981994227929</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>87.2147151485299</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D43" t="n">
-        <v>115.7228684476128</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>531.4162778577438</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="C2" t="n">
-        <v>531.4162778577438</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D2" t="n">
-        <v>531.4162778577438</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E2" t="n">
-        <v>531.4162778577438</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,7 +4327,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4348,34 +4348,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2239.989392753689</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1986.408332017868</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1655.345444674298</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218655</v>
+        <v>1302.576789404184</v>
       </c>
     </row>
     <row r="3">
@@ -4406,40 +4406,40 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380228</v>
+        <v>614.5430248380233</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694945</v>
+        <v>909.2465818694951</v>
       </c>
       <c r="M3" t="n">
         <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O3" t="n">
         <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
         <v>2004.520742047138</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4497,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1490.124203461141</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1490.124203461141</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>1490.124203461141</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V4" t="n">
-        <v>1490.124203461141</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W4" t="n">
-        <v>1490.124203461141</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1466.396332783113</v>
+        <v>1407.319888150873</v>
       </c>
       <c r="C5" t="n">
-        <v>1097.433815842701</v>
+        <v>1038.357371210461</v>
       </c>
       <c r="D5" t="n">
-        <v>739.1681172359506</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E5" t="n">
-        <v>739.1681172359506</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
@@ -4573,46 +4573,46 @@
         <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="W5" t="n">
-        <v>1852.996172847234</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="X5" t="n">
-        <v>1852.996172847234</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="Y5" t="n">
-        <v>1852.996172847234</v>
+        <v>1793.919728214995</v>
       </c>
     </row>
     <row r="6">
@@ -4640,25 +4640,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>168.0008189145195</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431134</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>846.751114818789</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>527.8767859460529</v>
+        <v>639.4419116165423</v>
       </c>
       <c r="C8" t="n">
-        <v>527.8767859460529</v>
+        <v>639.4419116165423</v>
       </c>
       <c r="D8" t="n">
-        <v>527.8767859460529</v>
+        <v>639.4419116165423</v>
       </c>
       <c r="E8" t="n">
-        <v>527.8767859460529</v>
+        <v>639.4419116165423</v>
       </c>
       <c r="F8" t="n">
-        <v>520.9312851968494</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>105.2265349211383</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>1768.94973892659</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182944</v>
+        <v>1416.181083656476</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218646</v>
+        <v>1416.181083656476</v>
       </c>
       <c r="Y8" t="n">
-        <v>527.8767859460529</v>
+        <v>1026.041751680664</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.7955294637002</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372448</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>803.2261243354874</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X10" t="n">
-        <v>575.23657343747</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>354.4439942939399</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5035,25 +5035,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,7 +5068,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>962.6357307816191</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1144.284195611859</v>
       </c>
     </row>
     <row r="14">
@@ -5272,52 +5272,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400676</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038306</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797706</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487564</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510505</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854702</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648815</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611855</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138374</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703073</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,40 +5764,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>982.1492342949679</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876688</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>430.7826650753331</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>282.8695714929399</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>282.8695714929399</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>115.6734722078199</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>115.6734722078199</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="23">
@@ -5983,34 +5983,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192507</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>636.6680198981028</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>467.7318369701959</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1811.200273012738</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1556.515784806851</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.09861476989</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1039.109063871873</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>818.3164847283425</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,31 +6697,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6925,43 +6925,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,31 +7171,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819173</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908938</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566477</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>54.95314511566465</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-1.145255306345589e-12</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>134.6711151870881</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>164.3170701178256</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194582</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>115.3527467088728</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462284</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>59.62759525031599</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>61.40075786968245</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D43" t="n">
-        <v>32.89260457059954</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894570.6432741422</v>
+        <v>894570.6432741424</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>894570.6432741423</v>
+        <v>894570.6432741424</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>894570.6432741423</v>
+        <v>894570.6432741424</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>894570.6432741423</v>
+        <v>894570.6432741424</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="16">
@@ -26319,43 +26319,43 @@
         <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985036</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="F2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="G2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="G2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="J2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26441,10 +26441,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719635</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719632</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-807126.2691507249</v>
       </c>
       <c r="C6" t="n">
-        <v>307625.5144251955</v>
+        <v>307625.5144251952</v>
       </c>
       <c r="D6" t="n">
-        <v>307625.5144251953</v>
+        <v>307625.5144251954</v>
       </c>
       <c r="E6" t="n">
-        <v>-91817.42936602568</v>
+        <v>-91504.78803710458</v>
       </c>
       <c r="F6" t="n">
-        <v>415668.01225852</v>
+        <v>415980.6535874414</v>
       </c>
       <c r="G6" t="n">
-        <v>415668.0122585201</v>
+        <v>415980.6535874415</v>
       </c>
       <c r="H6" t="n">
-        <v>415668.0122585201</v>
+        <v>415980.6535874414</v>
       </c>
       <c r="I6" t="n">
-        <v>415668.0122585202</v>
+        <v>415980.6535874414</v>
       </c>
       <c r="J6" t="n">
-        <v>248062.8344485375</v>
+        <v>248375.4757774587</v>
       </c>
       <c r="K6" t="n">
-        <v>415668.0122585201</v>
+        <v>415980.6535874415</v>
       </c>
       <c r="L6" t="n">
-        <v>415668.0122585202</v>
+        <v>415980.6535874413</v>
       </c>
       <c r="M6" t="n">
-        <v>283060.7185295935</v>
+        <v>283373.3598585147</v>
       </c>
       <c r="N6" t="n">
-        <v>415668.0122585202</v>
+        <v>415980.6535874414</v>
       </c>
       <c r="O6" t="n">
-        <v>415668.01225852</v>
+        <v>415980.6535874414</v>
       </c>
       <c r="P6" t="n">
-        <v>415668.01225852</v>
+        <v>415980.6535874416</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175394</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>8.765864810292612</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>10.98396408902494</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>49.80376291451429</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27596,13 +27596,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>80.94049690661248</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>261.5772240117853</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>104.1100963882733</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983997</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>236.1105747166118</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>247.5786016928015</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>46.91356563188771</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28067,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28976,7 +28976,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>137.7376326175077</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313199</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>117.9333660065822</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>304.632674239197</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667037</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462684</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096312</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
